--- a/data/mapping.xlsx
+++ b/data/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data_migration_sfdc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A32DCA-7E94-4564-84C9-9D168222440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2AB605-BA85-46F0-BE74-733E847BCA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="2340" windowWidth="28860" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="88">
   <si>
     <t>attributes</t>
   </si>
@@ -677,7 +677,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:G21"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +721,9 @@
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -734,7 +736,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -747,7 +751,9 @@
         <v>2</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -760,7 +766,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -794,7 +802,9 @@
       <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>67</v>
       </c>
@@ -808,7 +818,9 @@
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -823,7 +835,9 @@
       <c r="C9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
@@ -878,7 +892,9 @@
       <c r="C12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
         <v>87</v>
@@ -894,7 +910,9 @@
       <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
         <v>68</v>
@@ -909,7 +927,9 @@
         <v>12</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -922,7 +942,9 @@
         <v>13</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -935,7 +957,9 @@
         <v>14</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -948,7 +972,9 @@
         <v>15</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -963,7 +989,9 @@
       <c r="C18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
@@ -1018,7 +1046,9 @@
       <c r="C21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
         <v>87</v>
@@ -1034,7 +1064,9 @@
       <c r="C22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
         <v>68</v>
@@ -1049,7 +1081,9 @@
         <v>21</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1062,7 +1096,9 @@
         <v>22</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1075,7 +1111,9 @@
         <v>23</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1088,7 +1126,9 @@
         <v>24</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1101,7 +1141,9 @@
         <v>25</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1114,7 +1156,9 @@
         <v>26</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -1146,7 +1190,9 @@
         <v>28</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -1159,7 +1205,9 @@
         <v>29</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1172,7 +1220,9 @@
         <v>30</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -1187,7 +1237,9 @@
       <c r="C33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F33" s="6" t="s">
         <v>69</v>
       </c>
@@ -1201,7 +1253,9 @@
         <v>32</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1214,7 +1268,9 @@
         <v>33</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1227,7 +1283,9 @@
         <v>34</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -1240,7 +1298,9 @@
         <v>35</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1253,7 +1313,9 @@
         <v>36</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -1266,7 +1328,9 @@
         <v>37</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -1279,7 +1343,9 @@
         <v>38</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -1292,7 +1358,9 @@
         <v>39</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -1305,7 +1373,9 @@
         <v>40</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -1318,7 +1388,9 @@
         <v>41</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -1331,7 +1403,9 @@
         <v>42</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1344,7 +1418,9 @@
         <v>43</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -1357,7 +1433,9 @@
         <v>44</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -1370,7 +1448,9 @@
         <v>45</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -1383,7 +1463,9 @@
         <v>46</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -1396,7 +1478,9 @@
         <v>47</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -1409,7 +1493,9 @@
         <v>48</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -1422,7 +1508,9 @@
         <v>49</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -1435,7 +1523,9 @@
         <v>50</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -1448,7 +1538,9 @@
         <v>51</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -1461,7 +1553,9 @@
         <v>52</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -1474,7 +1568,9 @@
         <v>53</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -1487,7 +1583,9 @@
         <v>54</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -1500,7 +1598,9 @@
         <v>55</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -1513,7 +1613,9 @@
         <v>56</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -1526,7 +1628,9 @@
         <v>57</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -1539,7 +1643,9 @@
         <v>58</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -1552,7 +1658,9 @@
         <v>59</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -1565,7 +1673,9 @@
         <v>60</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -1578,7 +1688,9 @@
         <v>61</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -1591,7 +1703,9 @@
         <v>62</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -1604,7 +1718,9 @@
         <v>63</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -1617,7 +1733,9 @@
         <v>64</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -1630,7 +1748,9 @@
         <v>65</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -1643,7 +1763,9 @@
         <v>66</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>

--- a/data/mapping.xlsx
+++ b/data/mapping.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data_migration_sfdc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2AB605-BA85-46F0-BE74-733E847BCA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10018F6D-B7C7-4FA9-81F2-476C07130214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31140" yWindow="2340" windowWidth="28860" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mapping!$A$1:$G$68</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -677,17 +680,18 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1771,6 +1775,7 @@
       <c r="G68" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G68" xr:uid="{26513B70-CB80-49C6-8D87-378F92DC3D54}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>